--- a/WIP/Documents/Test/Unit Test/UJD_VN_Unit Test Report_v1.0_EN.xlsx
+++ b/WIP/Documents/Test/Unit Test/UJD_VN_Unit Test Report_v1.0_EN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Minh Pham\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Capstone Project\SVN\WIP\Documents\Test\Unit Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>UNIT TEST REPORT</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>EditVocabulary</t>
+  </si>
+  <si>
+    <t>24/7/2014</t>
   </si>
 </sst>
 </file>
@@ -566,27 +569,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -612,6 +594,27 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2585,8 +2588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -3298,17 +3301,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="A2" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2"/>
@@ -3325,74 +3328,74 @@
       <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="20" t="str">
+      <c r="B4" s="30" t="str">
         <f>[1]Cover!B4</f>
         <v>Useful Japanese Dictionary for Vietnamese</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="20" t="s">
+      <c r="E4" s="31"/>
+      <c r="F4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="str">
+      <c r="B5" s="30" t="str">
         <f>[1]Cover!B5</f>
         <v>UJD_VN</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21" t="s">
+      <c r="C5" s="30"/>
+      <c r="D5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="20" t="s">
+      <c r="E5" s="31"/>
+      <c r="F5" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="1:9" ht="12.75" customHeight="1">
       <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="20" t="str">
+      <c r="B6" s="30" t="str">
         <f>B5&amp;"_"&amp;"Unit Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>UJD_VN_Unit Test Report_v1.0</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22">
-        <v>41808</v>
-      </c>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="7"/>
@@ -3428,852 +3431,852 @@
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="30" t="s">
+      <c r="E11" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="30" t="s">
+      <c r="G11" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="30" t="s">
+      <c r="H11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="31" t="s">
+      <c r="I11" s="24" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="34">
+      <c r="A12" s="27">
         <v>1</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="27">
         <v>1</v>
       </c>
-      <c r="D12" s="34">
-        <v>0</v>
-      </c>
-      <c r="E12" s="34">
-        <v>0</v>
-      </c>
-      <c r="F12" s="34">
+      <c r="D12" s="27">
+        <v>0</v>
+      </c>
+      <c r="E12" s="27">
+        <v>0</v>
+      </c>
+      <c r="F12" s="27">
         <v>1</v>
       </c>
-      <c r="G12" s="34">
-        <v>0</v>
-      </c>
-      <c r="H12" s="34">
-        <v>0</v>
-      </c>
-      <c r="I12" s="34">
+      <c r="G12" s="27">
+        <v>0</v>
+      </c>
+      <c r="H12" s="27">
+        <v>0</v>
+      </c>
+      <c r="I12" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="34">
+      <c r="A13" s="27">
         <v>2</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="34">
+      <c r="C13" s="27">
         <v>1</v>
       </c>
-      <c r="D13" s="34">
-        <v>0</v>
-      </c>
-      <c r="E13" s="34">
-        <v>0</v>
-      </c>
-      <c r="F13" s="34">
+      <c r="D13" s="27">
+        <v>0</v>
+      </c>
+      <c r="E13" s="27">
+        <v>0</v>
+      </c>
+      <c r="F13" s="27">
         <v>1</v>
       </c>
-      <c r="G13" s="34">
-        <v>0</v>
-      </c>
-      <c r="H13" s="34">
-        <v>0</v>
-      </c>
-      <c r="I13" s="34">
+      <c r="G13" s="27">
+        <v>0</v>
+      </c>
+      <c r="H13" s="27">
+        <v>0</v>
+      </c>
+      <c r="I13" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="34">
+      <c r="A14" s="27">
         <v>3</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="27">
         <v>2</v>
       </c>
-      <c r="D14" s="34">
-        <v>0</v>
-      </c>
-      <c r="E14" s="34">
-        <v>0</v>
-      </c>
-      <c r="F14" s="34">
+      <c r="D14" s="27">
+        <v>0</v>
+      </c>
+      <c r="E14" s="27">
+        <v>0</v>
+      </c>
+      <c r="F14" s="27">
         <v>2</v>
       </c>
-      <c r="G14" s="34">
-        <v>0</v>
-      </c>
-      <c r="H14" s="34">
-        <v>0</v>
-      </c>
-      <c r="I14" s="34">
+      <c r="G14" s="27">
+        <v>0</v>
+      </c>
+      <c r="H14" s="27">
+        <v>0</v>
+      </c>
+      <c r="I14" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="34">
+      <c r="A15" s="27">
         <v>4</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="34">
+      <c r="C15" s="27">
         <v>16</v>
       </c>
-      <c r="D15" s="34">
+      <c r="D15" s="27">
         <f>'[2]Contribute Content'!C10</f>
         <v>0</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="27">
         <f>'[2]Contribute Content'!E10</f>
         <v>0</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="27">
         <v>13</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="27">
         <v>3</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="27">
         <f>'[2]Contribute Content'!K10</f>
         <v>0</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="34">
+      <c r="A16" s="27">
         <v>5</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="27">
         <v>6</v>
       </c>
-      <c r="D16" s="34">
-        <v>0</v>
-      </c>
-      <c r="E16" s="34">
-        <v>0</v>
-      </c>
-      <c r="F16" s="34">
+      <c r="D16" s="27">
+        <v>0</v>
+      </c>
+      <c r="E16" s="27">
+        <v>0</v>
+      </c>
+      <c r="F16" s="27">
         <v>2</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="27">
         <v>4</v>
       </c>
-      <c r="H16" s="34">
-        <v>0</v>
-      </c>
-      <c r="I16" s="34">
+      <c r="H16" s="27">
+        <v>0</v>
+      </c>
+      <c r="I16" s="27">
         <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="34">
+      <c r="A17" s="27">
         <v>6</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="34">
+      <c r="C17" s="27">
         <v>21</v>
       </c>
-      <c r="D17" s="34">
-        <v>0</v>
-      </c>
-      <c r="E17" s="34">
-        <v>0</v>
-      </c>
-      <c r="F17" s="34">
+      <c r="D17" s="27">
+        <v>0</v>
+      </c>
+      <c r="E17" s="27">
+        <v>0</v>
+      </c>
+      <c r="F17" s="27">
         <v>3</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="27">
         <v>8</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="27">
         <v>10</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="27">
         <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="34">
+      <c r="A18" s="27">
         <v>7</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="27">
         <v>4</v>
       </c>
-      <c r="D18" s="34">
-        <v>0</v>
-      </c>
-      <c r="E18" s="34">
-        <v>0</v>
-      </c>
-      <c r="F18" s="34">
+      <c r="D18" s="27">
+        <v>0</v>
+      </c>
+      <c r="E18" s="27">
+        <v>0</v>
+      </c>
+      <c r="F18" s="27">
         <v>1</v>
       </c>
-      <c r="G18" s="34">
+      <c r="G18" s="27">
         <v>3</v>
       </c>
-      <c r="H18" s="34">
-        <v>0</v>
-      </c>
-      <c r="I18" s="34">
+      <c r="H18" s="27">
+        <v>0</v>
+      </c>
+      <c r="I18" s="27">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="34">
+      <c r="A19" s="27">
         <v>8</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="34">
+      <c r="C19" s="27">
         <v>1</v>
       </c>
-      <c r="D19" s="34">
-        <v>0</v>
-      </c>
-      <c r="E19" s="34">
-        <v>0</v>
-      </c>
-      <c r="F19" s="34">
+      <c r="D19" s="27">
+        <v>0</v>
+      </c>
+      <c r="E19" s="27">
+        <v>0</v>
+      </c>
+      <c r="F19" s="27">
         <v>1</v>
       </c>
-      <c r="G19" s="34">
-        <v>0</v>
-      </c>
-      <c r="H19" s="34">
-        <v>0</v>
-      </c>
-      <c r="I19" s="34">
+      <c r="G19" s="27">
+        <v>0</v>
+      </c>
+      <c r="H19" s="27">
+        <v>0</v>
+      </c>
+      <c r="I19" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="34">
+      <c r="A20" s="27">
         <v>9</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="27">
         <v>4</v>
       </c>
-      <c r="D20" s="34">
-        <v>0</v>
-      </c>
-      <c r="E20" s="34">
-        <v>0</v>
-      </c>
-      <c r="F20" s="34">
+      <c r="D20" s="27">
+        <v>0</v>
+      </c>
+      <c r="E20" s="27">
+        <v>0</v>
+      </c>
+      <c r="F20" s="27">
         <v>4</v>
       </c>
-      <c r="G20" s="34">
-        <v>0</v>
-      </c>
-      <c r="H20" s="34">
-        <v>0</v>
-      </c>
-      <c r="I20" s="34">
+      <c r="G20" s="27">
+        <v>0</v>
+      </c>
+      <c r="H20" s="27">
+        <v>0</v>
+      </c>
+      <c r="I20" s="27">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="34">
+      <c r="A21" s="27">
         <v>10</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="34">
+      <c r="C21" s="27">
         <v>32</v>
       </c>
-      <c r="D21" s="34">
-        <v>0</v>
-      </c>
-      <c r="E21" s="34">
-        <v>0</v>
-      </c>
-      <c r="F21" s="34">
+      <c r="D21" s="27">
+        <v>0</v>
+      </c>
+      <c r="E21" s="27">
+        <v>0</v>
+      </c>
+      <c r="F21" s="27">
         <v>5</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="27">
         <v>27</v>
       </c>
-      <c r="H21" s="34">
-        <v>0</v>
-      </c>
-      <c r="I21" s="34">
+      <c r="H21" s="27">
+        <v>0</v>
+      </c>
+      <c r="I21" s="27">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="34">
+      <c r="A22" s="27">
         <v>11</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="27">
         <v>32</v>
       </c>
-      <c r="D22" s="34">
-        <v>0</v>
-      </c>
-      <c r="E22" s="34">
-        <v>0</v>
-      </c>
-      <c r="F22" s="34">
+      <c r="D22" s="27">
+        <v>0</v>
+      </c>
+      <c r="E22" s="27">
+        <v>0</v>
+      </c>
+      <c r="F22" s="27">
         <v>5</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="27">
         <v>27</v>
       </c>
-      <c r="H22" s="34">
-        <v>0</v>
-      </c>
-      <c r="I22" s="34">
+      <c r="H22" s="27">
+        <v>0</v>
+      </c>
+      <c r="I22" s="27">
         <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="34">
+      <c r="A23" s="27">
         <v>12</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="34">
+      <c r="C23" s="27">
         <v>2</v>
       </c>
-      <c r="D23" s="34">
-        <v>0</v>
-      </c>
-      <c r="E23" s="34">
-        <v>0</v>
-      </c>
-      <c r="F23" s="34">
+      <c r="D23" s="27">
+        <v>0</v>
+      </c>
+      <c r="E23" s="27">
+        <v>0</v>
+      </c>
+      <c r="F23" s="27">
         <v>2</v>
       </c>
-      <c r="G23" s="34">
-        <v>0</v>
-      </c>
-      <c r="H23" s="34">
-        <v>0</v>
-      </c>
-      <c r="I23" s="34">
+      <c r="G23" s="27">
+        <v>0</v>
+      </c>
+      <c r="H23" s="27">
+        <v>0</v>
+      </c>
+      <c r="I23" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="34">
+      <c r="A24" s="27">
         <v>13</v>
       </c>
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24" s="27">
         <v>8</v>
       </c>
-      <c r="D24" s="34">
-        <v>0</v>
-      </c>
-      <c r="E24" s="34">
-        <v>0</v>
-      </c>
-      <c r="F24" s="34">
+      <c r="D24" s="27">
+        <v>0</v>
+      </c>
+      <c r="E24" s="27">
+        <v>0</v>
+      </c>
+      <c r="F24" s="27">
         <v>1</v>
       </c>
-      <c r="G24" s="34">
+      <c r="G24" s="27">
         <v>7</v>
       </c>
-      <c r="H24" s="34">
-        <v>0</v>
-      </c>
-      <c r="I24" s="34">
+      <c r="H24" s="27">
+        <v>0</v>
+      </c>
+      <c r="I24" s="27">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="34">
+      <c r="A25" s="27">
         <v>14</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="34">
+      <c r="C25" s="27">
         <v>6</v>
       </c>
-      <c r="D25" s="34">
-        <v>0</v>
-      </c>
-      <c r="E25" s="34">
-        <v>0</v>
-      </c>
-      <c r="F25" s="34">
+      <c r="D25" s="27">
+        <v>0</v>
+      </c>
+      <c r="E25" s="27">
+        <v>0</v>
+      </c>
+      <c r="F25" s="27">
         <v>1</v>
       </c>
-      <c r="G25" s="34">
+      <c r="G25" s="27">
         <v>5</v>
       </c>
-      <c r="H25" s="34">
-        <v>0</v>
-      </c>
-      <c r="I25" s="34">
+      <c r="H25" s="27">
+        <v>0</v>
+      </c>
+      <c r="I25" s="27">
         <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="34">
+      <c r="A26" s="27">
         <v>15</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="27">
         <v>15</v>
       </c>
-      <c r="D26" s="34">
-        <v>0</v>
-      </c>
-      <c r="E26" s="34">
-        <v>0</v>
-      </c>
-      <c r="F26" s="34">
+      <c r="D26" s="27">
+        <v>0</v>
+      </c>
+      <c r="E26" s="27">
+        <v>0</v>
+      </c>
+      <c r="F26" s="27">
         <v>1</v>
       </c>
-      <c r="G26" s="34">
+      <c r="G26" s="27">
         <v>7</v>
       </c>
-      <c r="H26" s="34">
+      <c r="H26" s="27">
         <v>7</v>
       </c>
-      <c r="I26" s="34">
+      <c r="I26" s="27">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="34">
+      <c r="A27" s="27">
         <v>16</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="34">
+      <c r="C27" s="27">
         <v>27</v>
       </c>
-      <c r="D27" s="34">
-        <v>0</v>
-      </c>
-      <c r="E27" s="34">
-        <v>0</v>
-      </c>
-      <c r="F27" s="34">
+      <c r="D27" s="27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="27">
+        <v>0</v>
+      </c>
+      <c r="F27" s="27">
         <v>17</v>
       </c>
-      <c r="G27" s="34">
+      <c r="G27" s="27">
         <v>10</v>
       </c>
-      <c r="H27" s="34">
-        <v>0</v>
-      </c>
-      <c r="I27" s="34">
+      <c r="H27" s="27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="27">
         <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="34">
+      <c r="A28" s="27">
         <v>17</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="34">
+      <c r="C28" s="27">
         <v>9</v>
       </c>
-      <c r="D28" s="34">
-        <v>0</v>
-      </c>
-      <c r="E28" s="34">
-        <v>0</v>
-      </c>
-      <c r="F28" s="34">
+      <c r="D28" s="27">
+        <v>0</v>
+      </c>
+      <c r="E28" s="27">
+        <v>0</v>
+      </c>
+      <c r="F28" s="27">
         <v>2</v>
       </c>
-      <c r="G28" s="34">
+      <c r="G28" s="27">
         <v>7</v>
       </c>
-      <c r="H28" s="34">
-        <v>0</v>
-      </c>
-      <c r="I28" s="34">
+      <c r="H28" s="27">
+        <v>0</v>
+      </c>
+      <c r="I28" s="27">
         <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="34">
+      <c r="A29" s="27">
         <v>18</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="27">
         <v>4</v>
       </c>
-      <c r="D29" s="34">
-        <v>0</v>
-      </c>
-      <c r="E29" s="34">
-        <v>0</v>
-      </c>
-      <c r="F29" s="34">
+      <c r="D29" s="27">
+        <v>0</v>
+      </c>
+      <c r="E29" s="27">
+        <v>0</v>
+      </c>
+      <c r="F29" s="27">
         <v>2</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G29" s="27">
         <v>2</v>
       </c>
-      <c r="H29" s="34">
-        <v>0</v>
-      </c>
-      <c r="I29" s="34">
+      <c r="H29" s="27">
+        <v>0</v>
+      </c>
+      <c r="I29" s="27">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="34">
+      <c r="A30" s="27">
         <v>19</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="27">
         <v>223</v>
       </c>
-      <c r="D30" s="34">
-        <v>0</v>
-      </c>
-      <c r="E30" s="34">
-        <v>0</v>
-      </c>
-      <c r="F30" s="34">
+      <c r="D30" s="27">
+        <v>0</v>
+      </c>
+      <c r="E30" s="27">
+        <v>0</v>
+      </c>
+      <c r="F30" s="27">
         <v>1</v>
       </c>
-      <c r="G30" s="34">
+      <c r="G30" s="27">
         <v>222</v>
       </c>
-      <c r="H30" s="34">
-        <v>0</v>
-      </c>
-      <c r="I30" s="34">
+      <c r="H30" s="27">
+        <v>0</v>
+      </c>
+      <c r="I30" s="27">
         <v>223</v>
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="34">
+      <c r="A31" s="27">
         <v>20</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="34">
+      <c r="C31" s="27">
         <v>20</v>
       </c>
-      <c r="D31" s="34">
-        <v>0</v>
-      </c>
-      <c r="E31" s="34">
-        <v>0</v>
-      </c>
-      <c r="F31" s="34">
+      <c r="D31" s="27">
+        <v>0</v>
+      </c>
+      <c r="E31" s="27">
+        <v>0</v>
+      </c>
+      <c r="F31" s="27">
         <v>2</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="27">
         <v>18</v>
       </c>
-      <c r="H31" s="34">
-        <v>0</v>
-      </c>
-      <c r="I31" s="34">
+      <c r="H31" s="27">
+        <v>0</v>
+      </c>
+      <c r="I31" s="27">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="34">
+      <c r="A32" s="27">
         <v>21</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="27">
         <v>4</v>
       </c>
-      <c r="D32" s="34">
-        <v>0</v>
-      </c>
-      <c r="E32" s="34">
-        <v>0</v>
-      </c>
-      <c r="F32" s="34">
+      <c r="D32" s="27">
+        <v>0</v>
+      </c>
+      <c r="E32" s="27">
+        <v>0</v>
+      </c>
+      <c r="F32" s="27">
         <v>2</v>
       </c>
-      <c r="G32" s="34">
+      <c r="G32" s="27">
         <v>2</v>
       </c>
-      <c r="H32" s="34">
-        <v>0</v>
-      </c>
-      <c r="I32" s="34">
+      <c r="H32" s="27">
+        <v>0</v>
+      </c>
+      <c r="I32" s="27">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="34">
+      <c r="A33" s="27">
         <v>22</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="34">
+      <c r="C33" s="27">
         <v>12</v>
       </c>
-      <c r="D33" s="34">
-        <v>0</v>
-      </c>
-      <c r="E33" s="34">
-        <v>0</v>
-      </c>
-      <c r="F33" s="34">
+      <c r="D33" s="27">
+        <v>0</v>
+      </c>
+      <c r="E33" s="27">
+        <v>0</v>
+      </c>
+      <c r="F33" s="27">
         <v>1</v>
       </c>
-      <c r="G33" s="34">
+      <c r="G33" s="27">
         <v>11</v>
       </c>
-      <c r="H33" s="34">
-        <v>0</v>
-      </c>
-      <c r="I33" s="34">
+      <c r="H33" s="27">
+        <v>0</v>
+      </c>
+      <c r="I33" s="27">
         <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="34">
+      <c r="A34" s="27">
         <v>23</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="34">
+      <c r="C34" s="27">
         <v>12</v>
       </c>
-      <c r="D34" s="34">
-        <v>0</v>
-      </c>
-      <c r="E34" s="34">
-        <v>0</v>
-      </c>
-      <c r="F34" s="34">
+      <c r="D34" s="27">
+        <v>0</v>
+      </c>
+      <c r="E34" s="27">
+        <v>0</v>
+      </c>
+      <c r="F34" s="27">
         <v>1</v>
       </c>
-      <c r="G34" s="34">
+      <c r="G34" s="27">
         <v>11</v>
       </c>
-      <c r="H34" s="34">
-        <v>0</v>
-      </c>
-      <c r="I34" s="34">
+      <c r="H34" s="27">
+        <v>0</v>
+      </c>
+      <c r="I34" s="27">
         <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="34">
+      <c r="A35" s="27">
         <v>24</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="34">
+      <c r="C35" s="27">
         <v>1</v>
       </c>
-      <c r="D35" s="34">
-        <v>0</v>
-      </c>
-      <c r="E35" s="34">
-        <v>0</v>
-      </c>
-      <c r="F35" s="34">
+      <c r="D35" s="27">
+        <v>0</v>
+      </c>
+      <c r="E35" s="27">
+        <v>0</v>
+      </c>
+      <c r="F35" s="27">
         <v>1</v>
       </c>
-      <c r="G35" s="34">
-        <v>0</v>
-      </c>
-      <c r="H35" s="34">
-        <v>0</v>
-      </c>
-      <c r="I35" s="34">
+      <c r="G35" s="27">
+        <v>0</v>
+      </c>
+      <c r="H35" s="27">
+        <v>0</v>
+      </c>
+      <c r="I35" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="34">
+      <c r="A36" s="27">
         <v>25</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="34">
+      <c r="C36" s="27">
         <v>1</v>
       </c>
-      <c r="D36" s="34">
-        <v>0</v>
-      </c>
-      <c r="E36" s="34">
-        <v>0</v>
-      </c>
-      <c r="F36" s="34">
+      <c r="D36" s="27">
+        <v>0</v>
+      </c>
+      <c r="E36" s="27">
+        <v>0</v>
+      </c>
+      <c r="F36" s="27">
         <v>1</v>
       </c>
-      <c r="G36" s="34">
-        <v>0</v>
-      </c>
-      <c r="H36" s="34">
-        <v>0</v>
-      </c>
-      <c r="I36" s="34">
+      <c r="G36" s="27">
+        <v>0</v>
+      </c>
+      <c r="H36" s="27">
+        <v>0</v>
+      </c>
+      <c r="I36" s="27">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:9">
-      <c r="A37" s="34">
+      <c r="A37" s="27">
         <v>26</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="34">
+      <c r="C37" s="27">
         <v>12</v>
       </c>
-      <c r="D37" s="34">
-        <v>0</v>
-      </c>
-      <c r="E37" s="34">
-        <v>0</v>
-      </c>
-      <c r="F37" s="34">
+      <c r="D37" s="27">
+        <v>0</v>
+      </c>
+      <c r="E37" s="27">
+        <v>0</v>
+      </c>
+      <c r="F37" s="27">
         <v>1</v>
       </c>
-      <c r="G37" s="34">
+      <c r="G37" s="27">
         <v>11</v>
       </c>
-      <c r="H37" s="34">
-        <v>0</v>
-      </c>
-      <c r="I37" s="34">
+      <c r="H37" s="27">
+        <v>0</v>
+      </c>
+      <c r="I37" s="27">
         <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:9">
-      <c r="A38" s="34">
+      <c r="A38" s="27">
         <v>27</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="34">
+      <c r="C38" s="27">
         <v>16</v>
       </c>
-      <c r="D38" s="34">
-        <v>0</v>
-      </c>
-      <c r="E38" s="34">
-        <v>0</v>
-      </c>
-      <c r="F38" s="34">
+      <c r="D38" s="27">
+        <v>0</v>
+      </c>
+      <c r="E38" s="27">
+        <v>0</v>
+      </c>
+      <c r="F38" s="27">
         <v>4</v>
       </c>
-      <c r="G38" s="34">
+      <c r="G38" s="27">
         <v>12</v>
       </c>
-      <c r="H38" s="34">
-        <v>0</v>
-      </c>
-      <c r="I38" s="34">
+      <c r="H38" s="27">
+        <v>0</v>
+      </c>
+      <c r="I38" s="27">
         <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="34">
+      <c r="A39" s="27">
         <v>28</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="34">
+      <c r="C39" s="27">
         <v>50</v>
       </c>
-      <c r="D39" s="34">
-        <v>0</v>
-      </c>
-      <c r="E39" s="34">
-        <v>0</v>
-      </c>
-      <c r="F39" s="34">
+      <c r="D39" s="27">
+        <v>0</v>
+      </c>
+      <c r="E39" s="27">
+        <v>0</v>
+      </c>
+      <c r="F39" s="27">
         <v>2</v>
       </c>
-      <c r="G39" s="34">
+      <c r="G39" s="27">
         <v>48</v>
       </c>
-      <c r="H39" s="34">
-        <v>0</v>
-      </c>
-      <c r="I39" s="34">
+      <c r="H39" s="27">
+        <v>0</v>
+      </c>
+      <c r="I39" s="27">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="14.25">
-      <c r="A40" s="32"/>
-      <c r="B40" s="33"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
